--- a/Control_de_lectura/SI2019_Control de lectura Steve Jobs.xlsx
+++ b/Control_de_lectura/SI2019_Control de lectura Steve Jobs.xlsx
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,13 +772,15 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <v>9</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
       <c r="F15" s="19"/>
       <c r="G15" s="12">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,13 +790,17 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="19"/>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G37" si="2">SUM(C16:F16)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -804,13 +810,17 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,13 +830,17 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="12">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18">
+        <v>10</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,13 +850,17 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="12">
+        <v>10</v>
+      </c>
+      <c r="D19" s="18">
+        <v>10</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -852,13 +870,15 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="12">
+        <v>10</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">

--- a/Control_de_lectura/SI2019_Control de lectura Steve Jobs.xlsx
+++ b/Control_de_lectura/SI2019_Control de lectura Steve Jobs.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,12 +775,18 @@
       <c r="C15" s="12">
         <v>9</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="19"/>
+      <c r="D15" s="10">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12">
+        <v>7</v>
+      </c>
+      <c r="F15" s="19">
+        <v>10</v>
+      </c>
       <c r="G15" s="12">
         <f>SUM(C15:F15)</f>
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,11 +802,15 @@
       <c r="D16" s="10">
         <v>10</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
+      <c r="E16" s="12">
+        <v>9</v>
+      </c>
+      <c r="F16" s="19">
+        <v>9</v>
+      </c>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G37" si="2">SUM(C16:F16)</f>
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,11 +826,15 @@
       <c r="D17" s="10">
         <v>10</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
+      <c r="F17" s="19">
+        <v>10</v>
+      </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,11 +850,15 @@
       <c r="D18" s="18">
         <v>10</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="19"/>
+      <c r="E18" s="12">
+        <v>10</v>
+      </c>
+      <c r="F18" s="19">
+        <v>10</v>
+      </c>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,11 +874,15 @@
       <c r="D19" s="18">
         <v>10</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="19"/>
+      <c r="E19" s="12">
+        <v>10</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9</v>
+      </c>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,12 +895,18 @@
       <c r="C20" s="12">
         <v>10</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="18">
+        <v>9</v>
+      </c>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="F20" s="19">
+        <v>8</v>
+      </c>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
